--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H2">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I2">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J2">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1087903333333333</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N2">
-        <v>0.326371</v>
+        <v>0.343534</v>
       </c>
       <c r="O2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P2">
-        <v>0.001630158713897873</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q2">
-        <v>3.510670801667333</v>
+        <v>4.886880279300667</v>
       </c>
       <c r="R2">
-        <v>31.596037215006</v>
+        <v>43.981922513706</v>
       </c>
       <c r="S2">
-        <v>0.001464067521732026</v>
+        <v>0.001628951138703659</v>
       </c>
       <c r="T2">
-        <v>0.001464067521732026</v>
+        <v>0.001628951138703658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H3">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I3">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J3">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.402575</v>
       </c>
       <c r="O3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P3">
-        <v>0.007005585233201815</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q3">
-        <v>15.08706073655</v>
+        <v>19.952074926325</v>
       </c>
       <c r="R3">
-        <v>135.78354662895</v>
+        <v>179.568674336925</v>
       </c>
       <c r="S3">
-        <v>0.006291810560047602</v>
+        <v>0.006650655083244405</v>
       </c>
       <c r="T3">
-        <v>0.006291810560047603</v>
+        <v>0.006650655083244405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.270062</v>
+        <v>42.675953</v>
       </c>
       <c r="H4">
-        <v>96.81018599999999</v>
+        <v>128.027859</v>
       </c>
       <c r="I4">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314253</v>
       </c>
       <c r="J4">
-        <v>0.8981134838283895</v>
+        <v>0.9123907898314252</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8144386666666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N4">
-        <v>2.443316</v>
+        <v>190.670502</v>
       </c>
       <c r="O4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P4">
-        <v>0.01220388106849596</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q4">
-        <v>26.28198626853066</v>
+        <v>2712.348460612802</v>
       </c>
       <c r="R4">
-        <v>236.537876416776</v>
+        <v>24411.13614551522</v>
       </c>
       <c r="S4">
-        <v>0.01096047014265424</v>
+        <v>0.9041111836094773</v>
       </c>
       <c r="T4">
-        <v>0.01096047014265424</v>
+        <v>0.9041111836094772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.270062</v>
+        <v>1.529744666666667</v>
       </c>
       <c r="H5">
-        <v>96.81018599999999</v>
+        <v>4.589234</v>
       </c>
       <c r="I5">
-        <v>0.8981134838283895</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J5">
-        <v>0.8981134838283895</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>65.34528366666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N5">
-        <v>196.035851</v>
+        <v>0.343534</v>
       </c>
       <c r="O5">
-        <v>0.9791603749844043</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P5">
-        <v>0.9791603749844044</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q5">
-        <v>2108.69635533092</v>
+        <v>0.1751731014395556</v>
       </c>
       <c r="R5">
-        <v>18978.26719797828</v>
+        <v>1.576557912956</v>
       </c>
       <c r="S5">
-        <v>0.8793971356039556</v>
+        <v>5.839071283756723E-05</v>
       </c>
       <c r="T5">
-        <v>0.8793971356039557</v>
+        <v>5.839071283756721E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>4.589234</v>
       </c>
       <c r="I6">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J6">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1087903333333333</v>
+        <v>0.467525</v>
       </c>
       <c r="N6">
-        <v>0.326371</v>
+        <v>1.402575</v>
       </c>
       <c r="O6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P6">
-        <v>0.001630158713897873</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q6">
-        <v>0.1664214322015556</v>
+        <v>0.7151938752833334</v>
       </c>
       <c r="R6">
-        <v>1.497792889814</v>
+        <v>6.436744877550001</v>
       </c>
       <c r="S6">
-        <v>6.94033213512094E-05</v>
+        <v>0.0002383966479537712</v>
       </c>
       <c r="T6">
-        <v>6.94033213512094E-05</v>
+        <v>0.0002383966479537712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>4.589234</v>
       </c>
       <c r="I7">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803058</v>
       </c>
       <c r="J7">
-        <v>0.04257457924772189</v>
+        <v>0.03270518515803057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.467525</v>
+        <v>63.556834</v>
       </c>
       <c r="N7">
-        <v>1.402575</v>
+        <v>190.670502</v>
       </c>
       <c r="O7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P7">
-        <v>0.007005585233201815</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q7">
-        <v>0.7151938752833334</v>
+        <v>97.22572784171868</v>
       </c>
       <c r="R7">
-        <v>6.436744877550001</v>
+        <v>875.031550575468</v>
       </c>
       <c r="S7">
-        <v>0.0002982598436876209</v>
+        <v>0.03240839779723925</v>
       </c>
       <c r="T7">
-        <v>0.0002982598436876209</v>
+        <v>0.03240839779723923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.529744666666667</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H8">
-        <v>4.589234</v>
+        <v>2.795768</v>
       </c>
       <c r="I8">
-        <v>0.04257457924772189</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J8">
-        <v>0.04257457924772189</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.8144386666666666</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N8">
-        <v>2.443316</v>
+        <v>0.343534</v>
       </c>
       <c r="O8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P8">
-        <v>0.01220388106849596</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q8">
-        <v>1.245883206660444</v>
+        <v>0.1067157071235555</v>
       </c>
       <c r="R8">
-        <v>11.212948859944</v>
+        <v>0.960441364112</v>
       </c>
       <c r="S8">
-        <v>0.0005195751016804542</v>
+        <v>3.557170683570714E-05</v>
       </c>
       <c r="T8">
-        <v>0.0005195751016804542</v>
+        <v>3.557170683570713E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.529744666666667</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H9">
-        <v>4.589234</v>
+        <v>2.795768</v>
       </c>
       <c r="I9">
-        <v>0.04257457924772189</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J9">
-        <v>0.04257457924772189</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.34528366666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N9">
-        <v>196.035851</v>
+        <v>1.402575</v>
       </c>
       <c r="O9">
-        <v>0.9791603749844043</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P9">
-        <v>0.9791603749844044</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q9">
-        <v>99.96159918090378</v>
+        <v>0.4356971447333333</v>
       </c>
       <c r="R9">
-        <v>899.6543926281339</v>
+        <v>3.9212743026</v>
       </c>
       <c r="S9">
-        <v>0.04168734098100261</v>
+        <v>0.0001452315832351148</v>
       </c>
       <c r="T9">
-        <v>0.04168734098100261</v>
+        <v>0.0001452315832351148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.308728</v>
+        <v>0.9319226666666666</v>
       </c>
       <c r="H10">
-        <v>0.926184</v>
+        <v>2.795768</v>
       </c>
       <c r="I10">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="J10">
-        <v>0.008592260517980135</v>
+        <v>0.01992404616955614</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1087903333333333</v>
+        <v>63.556834</v>
       </c>
       <c r="N10">
-        <v>0.326371</v>
+        <v>190.670502</v>
       </c>
       <c r="O10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P10">
-        <v>0.001630158713897873</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q10">
-        <v>0.03358662202933334</v>
+        <v>59.23005422617067</v>
       </c>
       <c r="R10">
-        <v>0.302279598264</v>
+        <v>533.070488035536</v>
       </c>
       <c r="S10">
-        <v>1.400674835546597E-05</v>
+        <v>0.01974324287948533</v>
       </c>
       <c r="T10">
-        <v>1.400674835546597E-05</v>
+        <v>0.01974324287948532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.308728</v>
+        <v>1.636145333333333</v>
       </c>
       <c r="H11">
-        <v>0.926184</v>
+        <v>4.908436</v>
       </c>
       <c r="I11">
-        <v>0.008592260517980135</v>
+        <v>0.03497997884098805</v>
       </c>
       <c r="J11">
-        <v>0.008592260517980135</v>
+        <v>0.03497997884098804</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.467525</v>
+        <v>0.1145113333333333</v>
       </c>
       <c r="N11">
-        <v>1.402575</v>
+        <v>0.343534</v>
       </c>
       <c r="O11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625045</v>
       </c>
       <c r="P11">
-        <v>0.007005585233201815</v>
+        <v>0.001785365609625044</v>
       </c>
       <c r="Q11">
-        <v>0.1443380582</v>
+        <v>0.1873571836471111</v>
       </c>
       <c r="R11">
-        <v>1.2990425238</v>
+        <v>1.686214652824</v>
       </c>
       <c r="S11">
-        <v>6.019381340458461E-05</v>
+        <v>6.24520512481118E-05</v>
       </c>
       <c r="T11">
-        <v>6.019381340458462E-05</v>
+        <v>6.245205124811177E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.308728</v>
+        <v>1.636145333333333</v>
       </c>
       <c r="H12">
-        <v>0.926184</v>
+        <v>4.908436</v>
       </c>
       <c r="I12">
-        <v>0.008592260517980135</v>
+        <v>0.03497997884098805</v>
       </c>
       <c r="J12">
-        <v>0.008592260517980135</v>
+        <v>0.03497997884098804</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8144386666666666</v>
+        <v>0.467525</v>
       </c>
       <c r="N12">
-        <v>2.443316</v>
+        <v>1.402575</v>
       </c>
       <c r="O12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="P12">
-        <v>0.01220388106849596</v>
+        <v>0.007289261528465441</v>
       </c>
       <c r="Q12">
-        <v>0.2514400206826667</v>
+        <v>0.7649388469666667</v>
       </c>
       <c r="R12">
-        <v>2.262960186144</v>
+        <v>6.884449622700001</v>
       </c>
       <c r="S12">
-        <v>0.0001048589254709631</v>
+        <v>0.0002549782140321493</v>
       </c>
       <c r="T12">
-        <v>0.0001048589254709631</v>
+        <v>0.0002549782140321493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.308728</v>
+        <v>1.636145333333333</v>
       </c>
       <c r="H13">
-        <v>0.926184</v>
+        <v>4.908436</v>
       </c>
       <c r="I13">
-        <v>0.008592260517980135</v>
+        <v>0.03497997884098805</v>
       </c>
       <c r="J13">
-        <v>0.008592260517980135</v>
+        <v>0.03497997884098804</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.34528366666666</v>
+        <v>63.556834</v>
       </c>
       <c r="N13">
-        <v>196.035851</v>
+        <v>190.670502</v>
       </c>
       <c r="O13">
-        <v>0.9791603749844043</v>
+        <v>0.9909253728619096</v>
       </c>
       <c r="P13">
-        <v>0.9791603749844044</v>
+        <v>0.9909253728619095</v>
       </c>
       <c r="Q13">
-        <v>20.17391873584267</v>
+        <v>103.9882173505413</v>
       </c>
       <c r="R13">
-        <v>181.565268622584</v>
+        <v>935.8939561548719</v>
       </c>
       <c r="S13">
-        <v>0.008413201030749122</v>
+        <v>0.0346625485757078</v>
       </c>
       <c r="T13">
-        <v>0.008413201030749122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1.822405666666667</v>
-      </c>
-      <c r="H14">
-        <v>5.467217</v>
-      </c>
-      <c r="I14">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="J14">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.1087903333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.326371</v>
-      </c>
-      <c r="O14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="P14">
-        <v>0.001630158713897873</v>
-      </c>
-      <c r="Q14">
-        <v>0.1982601199452222</v>
-      </c>
-      <c r="R14">
-        <v>1.784341079507</v>
-      </c>
-      <c r="S14">
-        <v>8.268112245917182E-05</v>
-      </c>
-      <c r="T14">
-        <v>8.268112245917182E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1.822405666666667</v>
-      </c>
-      <c r="H15">
-        <v>5.467217</v>
-      </c>
-      <c r="I15">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="J15">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.467525</v>
-      </c>
-      <c r="N15">
-        <v>1.402575</v>
-      </c>
-      <c r="O15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="P15">
-        <v>0.007005585233201815</v>
-      </c>
-      <c r="Q15">
-        <v>0.8520202093083333</v>
-      </c>
-      <c r="R15">
-        <v>7.668181883775</v>
-      </c>
-      <c r="S15">
-        <v>0.0003553210160620059</v>
-      </c>
-      <c r="T15">
-        <v>0.0003553210160620059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.822405666666667</v>
-      </c>
-      <c r="H16">
-        <v>5.467217</v>
-      </c>
-      <c r="I16">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="J16">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.8144386666666666</v>
-      </c>
-      <c r="N16">
-        <v>2.443316</v>
-      </c>
-      <c r="O16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="P16">
-        <v>0.01220388106849596</v>
-      </c>
-      <c r="Q16">
-        <v>1.484237641285778</v>
-      </c>
-      <c r="R16">
-        <v>13.358138771572</v>
-      </c>
-      <c r="S16">
-        <v>0.0006189768986903059</v>
-      </c>
-      <c r="T16">
-        <v>0.0006189768986903059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.822405666666667</v>
-      </c>
-      <c r="H17">
-        <v>5.467217</v>
-      </c>
-      <c r="I17">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="J17">
-        <v>0.05071967640590833</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>65.34528366666666</v>
-      </c>
-      <c r="N17">
-        <v>196.035851</v>
-      </c>
-      <c r="O17">
-        <v>0.9791603749844043</v>
-      </c>
-      <c r="P17">
-        <v>0.9791603749844044</v>
-      </c>
-      <c r="Q17">
-        <v>119.0856152440741</v>
-      </c>
-      <c r="R17">
-        <v>1071.770537196667</v>
-      </c>
-      <c r="S17">
-        <v>0.04966269736869685</v>
-      </c>
-      <c r="T17">
-        <v>0.04966269736869685</v>
+        <v>0.03466254857570778</v>
       </c>
     </row>
   </sheetData>
